--- a/Pedro/Pasta1- Aula 06.xlsx
+++ b/Pedro/Pasta1- Aula 06.xlsx
@@ -4,14 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Filtro" sheetId="1" r:id="rId1"/>
+    <sheet name=" VP F.Financeiras" sheetId="2" r:id="rId2"/>
+    <sheet name="VF" sheetId="3" r:id="rId3"/>
+    <sheet name="TAXA" sheetId="4" r:id="rId4"/>
+    <sheet name="NPER" sheetId="5" r:id="rId5"/>
+    <sheet name="PGTO" sheetId="6" r:id="rId6"/>
+    <sheet name="Exercício" sheetId="7" r:id="rId7"/>
+    <sheet name="Aniversário" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Filtro!$A$1:$G$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Exercício!$A$2:$F$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Filtro!$A$13:$H$14</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="6">Exercício!$A$17:$E$17</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">Filtro!$A$21:$G$21</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="6">Exercício!$A$11:$E$12</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">Filtro!$A$13:$H$14</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -24,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="66">
   <si>
     <t>Vendedor</t>
   </si>
@@ -87,17 +97,153 @@
   </si>
   <si>
     <t>Calculado</t>
+  </si>
+  <si>
+    <t>Valor Presente</t>
+  </si>
+  <si>
+    <t>Taxa</t>
+  </si>
+  <si>
+    <t>Parcelas</t>
+  </si>
+  <si>
+    <t>Valor Futuro</t>
+  </si>
+  <si>
+    <t>TAXA</t>
+  </si>
+  <si>
+    <t>Valor do Carro</t>
+  </si>
+  <si>
+    <t>Entrada</t>
+  </si>
+  <si>
+    <t>Meses para Pagar</t>
+  </si>
+  <si>
+    <t>Prestações</t>
+  </si>
+  <si>
+    <t>Taxa de Juros</t>
+  </si>
+  <si>
+    <t>NPER</t>
+  </si>
+  <si>
+    <t>Valor Moto</t>
+  </si>
+  <si>
+    <t>Saldo</t>
+  </si>
+  <si>
+    <t>Valor Poupado</t>
+  </si>
+  <si>
+    <t>Tempo para Compra</t>
+  </si>
+  <si>
+    <t>PGTO</t>
+  </si>
+  <si>
+    <t>Valor Financiado</t>
+  </si>
+  <si>
+    <t>Juros</t>
+  </si>
+  <si>
+    <t>Pagamentos Mensais</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Risco</t>
+  </si>
+  <si>
+    <t>Rendimento Histórico</t>
+  </si>
+  <si>
+    <t>Prazo Meses</t>
+  </si>
+  <si>
+    <t>CDB</t>
+  </si>
+  <si>
+    <t>Fundo</t>
+  </si>
+  <si>
+    <t>Tesouro</t>
+  </si>
+  <si>
+    <t>Ações</t>
+  </si>
+  <si>
+    <t>Baixo</t>
+  </si>
+  <si>
+    <t>Médio</t>
+  </si>
+  <si>
+    <t>Alto</t>
+  </si>
+  <si>
+    <t>Investimento</t>
+  </si>
+  <si>
+    <t>VF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saldo da Conta </t>
+  </si>
+  <si>
+    <t>Área de Critério</t>
+  </si>
+  <si>
+    <t>Área de Extração</t>
+  </si>
+  <si>
+    <t>Aniversariantes</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Data de Nascimento</t>
+  </si>
+  <si>
+    <t>Mensagem</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Katia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diogo </t>
+  </si>
+  <si>
+    <t>Eduardo</t>
+  </si>
+  <si>
+    <t>Marlon</t>
+  </si>
+  <si>
+    <t>Vânia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,16 +265,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -136,12 +295,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -154,19 +329,63 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -182,11 +401,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -468,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,15 +1111,16 @@
       <c r="G29" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="A13:H14"/>
   <conditionalFormatting sqref="G2:G9">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>1000</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
       <formula>1000</formula>
       <formula>1999.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>2000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -912,4 +1132,1836 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="11">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="13">
+        <f>PV(C3,C4, ,-C5)</f>
+        <v>25124.527700509632</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="17">
+        <f>FV(C3,C4,, - C6)</f>
+        <v>30000.002745711754</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="16">
+        <v>25124.53</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="11">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="11">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="18">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="16">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="19">
+        <f>RATE(C5,-C6,C3-C4)</f>
+        <v>2.2601960686456434E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+    </row>
+    <row r="2" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+    </row>
+    <row r="3" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="25">
+        <v>52000</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+    </row>
+    <row r="4" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="25">
+        <v>1500</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+    </row>
+    <row r="6" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="26">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+    </row>
+    <row r="8" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="27">
+        <f>NPER(C6,-C5,-C4,C3)</f>
+        <v>31.145590390240869</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+    </row>
+    <row r="9" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+    </row>
+    <row r="10" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+    </row>
+    <row r="11" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+    </row>
+    <row r="12" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
+    </row>
+    <row r="13" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+    </row>
+    <row r="15" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+    </row>
+    <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="22"/>
+    </row>
+    <row r="17" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+    </row>
+    <row r="18" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
+    </row>
+    <row r="19" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22"/>
+    </row>
+    <row r="20" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+    </row>
+    <row r="21" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="22"/>
+    </row>
+    <row r="22" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+    </row>
+    <row r="23" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22"/>
+    </row>
+    <row r="24" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22"/>
+    </row>
+    <row r="25" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="22"/>
+    </row>
+    <row r="26" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22"/>
+    </row>
+    <row r="27" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="22"/>
+    </row>
+    <row r="28" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22"/>
+    </row>
+    <row r="29" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+    </row>
+    <row r="30" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="22"/>
+    </row>
+    <row r="31" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="22"/>
+    </row>
+    <row r="32" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="22"/>
+      <c r="AB32" s="22"/>
+    </row>
+    <row r="33" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="22"/>
+    </row>
+    <row r="34" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="22"/>
+      <c r="W34" s="22"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="22"/>
+      <c r="AA34" s="22"/>
+      <c r="AB34" s="22"/>
+    </row>
+    <row r="35" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="22"/>
+      <c r="AA35" s="22"/>
+      <c r="AB35" s="22"/>
+    </row>
+    <row r="36" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="22"/>
+      <c r="AB36" s="22"/>
+    </row>
+    <row r="37" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="22"/>
+      <c r="AA37" s="22"/>
+      <c r="AB37" s="22"/>
+    </row>
+    <row r="38" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22"/>
+      <c r="Z38" s="22"/>
+      <c r="AA38" s="22"/>
+      <c r="AB38" s="22"/>
+    </row>
+    <row r="39" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="22"/>
+      <c r="AA39" s="22"/>
+      <c r="AB39" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="20"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="13">
+        <f>PMT(C5,C4,-C3)</f>
+        <v>234.25279422725941</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="26">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E3" s="24">
+        <v>12</v>
+      </c>
+      <c r="F3" s="10">
+        <f>FV(D3,E3,,-2500)</f>
+        <v>2686.0604193048116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="24">
+        <v>2</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="26">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E4" s="24">
+        <v>24</v>
+      </c>
+      <c r="F4" s="10">
+        <f t="shared" ref="F4:F6" si="0">FV(D4,E4,,-2500)</f>
+        <v>2955.6111887878355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
+        <v>3</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="26">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E5" s="24">
+        <v>72</v>
+      </c>
+      <c r="F5" s="10">
+        <f t="shared" si="0"/>
+        <v>4437.0908450357883</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="24">
+        <v>4</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="26">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="E6" s="24">
+        <v>60</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" si="0"/>
+        <v>4408.7899238427372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="29">
+        <f>SUM(F3:F6)</f>
+        <v>14487.552376971173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="24">
+        <v>1</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="26">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E18" s="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <v>2</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="26">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E19" s="24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="30"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="30"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="34">
+        <v>37061</v>
+      </c>
+      <c r="C3" s="24" t="str">
+        <f ca="1">IF(DATE(YEAR(TODAY()),MONTH(B3),DAY(B3))&gt;TODAY(), "Faltam " &amp; DATE(YEAR(TODAY()),MONTH(B3),DAY(B3)) - TODAY() &amp; " dias", IF(DATE(YEAR(TODAY()),MONTH(B3),DAY(B3))&lt; TODAY(), "Foi há "&amp; TODAY() - DATE(YEAR(TODAY()),MONTH(B3),DAY(B3)) &amp; "dias", "Parabéns pelo seu aniversário!"))</f>
+        <v>Foi há 112dias</v>
+      </c>
+      <c r="D3" s="32"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="34">
+        <v>37925</v>
+      </c>
+      <c r="C4" s="24" t="str">
+        <f t="shared" ref="C4:C8" ca="1" si="0">IF(DATE(YEAR(TODAY()),MONTH(B4),DAY(B4))&gt;TODAY(), "Faltam " &amp; DATE(YEAR(TODAY()),MONTH(B4),DAY(B4)) - TODAY() &amp; " dias", IF(DATE(YEAR(TODAY()),MONTH(B4),DAY(B4))&lt; TODAY(), "Foi há "&amp; TODAY() - DATE(YEAR(TODAY()),MONTH(B4),DAY(B4)) &amp; "dias", "Parabéns pelo seu aniversário!"))</f>
+        <v>Faltam 22 dias</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="34">
+        <v>32304</v>
+      </c>
+      <c r="C5" s="24" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Foi há 121dias</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="34">
+        <v>37910</v>
+      </c>
+      <c r="C6" s="24" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Faltam 7 dias</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="34">
+        <v>32790</v>
+      </c>
+      <c r="C7" s="24" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Parabéns pelo seu aniversário!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="34">
+        <v>34383</v>
+      </c>
+      <c r="C8" s="24" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Foi há 233dias</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>